--- a/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>ROCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +748,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +783,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,16 +989,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -958,17 +1011,23 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -987,17 +1046,23 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,31 +1096,37 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1067,8 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,16 +1175,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1116,17 +1201,23 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,16 +1280,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1203,25 +1306,31 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1232,17 +1341,23 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1377,25 +1516,31 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1406,17 +1551,23 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,16 +1595,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1464,51 +1621,63 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1704,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1770,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1805,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1840,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1678,23 +1875,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,37 +1910,49 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>116700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>116700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1980,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,22 +2085,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
         <v>100</v>
       </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2155,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>117900</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,52 +2224,60 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,23 +2290,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2325,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2360,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2535,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,22 +2725,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,22 +2865,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>117600</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>117900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,50 +2935,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2612,17 +3001,23 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,16 +3235,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2828,17 +3261,23 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3289,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3320,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3390,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3162,24 +3665,30 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>ROCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,70 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +762,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,23 +1043,25 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1017,17 +1071,23 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,14 +1095,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1052,17 +1112,23 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1102,17 +1170,23 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,16 +1197,16 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,22 +1261,28 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1207,40 +1293,46 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,22 +1384,28 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1312,31 +1416,37 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1347,17 +1457,23 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1522,31 +1662,37 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1557,17 +1703,23 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,22 +1753,28 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1627,57 +1785,69 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1878,31 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1997,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +2038,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1855,16 +2053,16 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1881,29 +2079,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,23 +2120,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F47" s="3">
         <v>116700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>116700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,17 +2152,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2202,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,28 +2325,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2407,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F54" s="3">
         <v>117800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>117900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,22 +2486,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2252,17 +2514,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,18 +2540,18 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,29 +2564,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,29 +2605,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2851,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,28 +3073,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F76" s="3">
         <v>117600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>117900</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,62 +3319,74 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3007,17 +3397,23 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3669,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3250,14 +3684,14 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3267,17 +3701,23 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +4072,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3595,34 +4087,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>117800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3665,30 +4169,36 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>700</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>ROCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,14 +1084,14 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1077,8 +1104,8 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,14 +1128,14 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1118,8 +1148,8 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1176,8 +1210,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,22 +1231,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,26 +1307,29 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1342,8 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1308,16 +1351,19 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1334,8 +1380,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,26 +1439,29 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1474,8 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1431,26 +1483,29 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1463,8 +1518,8 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1668,8 +1738,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,26 +1747,29 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1709,8 +1782,8 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1791,8 +1870,8 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2059,14 +2158,14 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,25 +2228,28 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E47" s="3">
         <v>116900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>116800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>116700</v>
       </c>
       <c r="G47" s="3">
         <v>116700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>116700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2158,8 +2263,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,23 +2460,23 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E54" s="3">
         <v>117500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,26 +2618,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2651,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2546,14 +2680,14 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2570,16 +2704,19 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2587,14 +2724,14 @@
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2611,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,31 +3250,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E76" s="3">
         <v>117400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>117500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>117600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117900</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3403,8 +3598,8 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,17 +3901,17 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3707,8 +3924,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4093,25 +4339,25 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>117800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,36 +4421,39 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>ROCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,32 +1123,34 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1107,17 +1160,23 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,23 +1184,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1151,17 +1210,23 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1254,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1213,17 +1280,23 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,28 +1304,28 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="G21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,31 +1389,37 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1345,17 +1430,23 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,13 +1454,13 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1383,11 +1474,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1539,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1477,40 +1580,46 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1521,17 +1630,23 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1854,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1741,40 +1880,46 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1785,17 +1930,23 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +1989,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1873,66 +2030,78 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2138,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2334,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2161,16 +2358,16 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>200</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2187,38 +2384,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,32 +2434,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F47" s="3">
         <v>117400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>116900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>116800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>116700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>116700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2266,17 +2475,23 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2684,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2784,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F54" s="3">
         <v>117900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>117500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>117600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>117800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>117900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2878,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2654,22 +2915,28 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2683,18 +2950,18 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,29 +2989,29 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +3024,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3324,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,37 +3594,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-400</v>
+        <v>-1000</v>
       </c>
       <c r="E72" s="3">
         <v>-600</v>
       </c>
       <c r="F72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,37 +3794,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F76" s="3">
         <v>117600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>117400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>117500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>117600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>117900</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +3894,92 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3601,17 +3990,23 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4319,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3927,17 +4360,23 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4539,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>93700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,16 +4809,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-93600</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4342,34 +4833,40 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>117800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>700</v>
+        <v>-300</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
